--- a/matlab/ipb1-40.xlsx
+++ b/matlab/ipb1-40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>reactor</t>
   </si>
@@ -52,24 +52,15 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>q-pulse</t>
-  </si>
-  <si>
     <t>ipb1-40</t>
   </si>
   <si>
-    <t>2017-03-06-v187-core-40b</t>
-  </si>
-  <si>
     <t>030617</t>
   </si>
   <si>
@@ -77,6 +68,48 @@
   </si>
   <si>
     <t>he</t>
+  </si>
+  <si>
+    <t>he-q-70kHz_day-01.csv</t>
+  </si>
+  <si>
+    <t>030817</t>
+  </si>
+  <si>
+    <t>he-q-excitation310_day-01.csv</t>
+  </si>
+  <si>
+    <t>031017</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>he-dc-temp-318_day-01.csv</t>
+  </si>
+  <si>
+    <t>031817</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>he-q-excitation312_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb1-40-he-dc-calibration_DKF_calibration_01.mat</t>
+  </si>
+  <si>
+    <t>he-dc</t>
+  </si>
+  <si>
+    <t>he-q</t>
+  </si>
+  <si>
+    <t>031217</t>
+  </si>
+  <si>
+    <t>2017-03-06-v187-40b-he</t>
   </si>
 </sst>
 </file>
@@ -629,6 +662,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -921,18 +957,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -940,9 +976,9 @@
     <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -981,30 +1017,30 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1019,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1034,38 +1070,217 @@
         <v>187</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>187</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>187</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>187</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>187</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/ipb1-40.xlsx
+++ b/matlab/ipb1-40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>reactor</t>
   </si>
@@ -91,9 +91,6 @@
     <t>031817</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>he-q-excitation312_day-01.csv</t>
   </si>
   <si>
@@ -110,6 +107,36 @@
   </si>
   <si>
     <t>2017-03-06-v187-40b-he</t>
+  </si>
+  <si>
+    <t>032017</t>
+  </si>
+  <si>
+    <t>he-dc-ex-320_day-01.csv</t>
+  </si>
+  <si>
+    <t>032217</t>
+  </si>
+  <si>
+    <t>he-q-ex-322-1_day-01.csv</t>
+  </si>
+  <si>
+    <t>2017-03-24-v188-core-40b</t>
+  </si>
+  <si>
+    <t>dc-h2-cali-324_day-01.csv</t>
+  </si>
+  <si>
+    <t>032417</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>032617</t>
+  </si>
+  <si>
+    <t>dc-h2-ex328_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -957,16 +984,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1034,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -1070,10 +1097,10 @@
         <v>187</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1081,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
@@ -1117,10 +1144,10 @@
         <v>187</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1128,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1164,10 +1191,10 @@
         <v>187</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1175,13 +1202,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>12</v>
@@ -1211,10 +1238,10 @@
         <v>187</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1222,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>24</v>
@@ -1258,29 +1285,193 @@
         <v>187</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>187</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>187</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>187</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>187</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matlab/ipb1-40.xlsx
+++ b/matlab/ipb1-40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>reactor</t>
   </si>
@@ -137,6 +137,48 @@
   </si>
   <si>
     <t>dc-h2-ex328_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-dc</t>
+  </si>
+  <si>
+    <t>q-h2-tmp42_day-01.csv</t>
+  </si>
+  <si>
+    <t>040217</t>
+  </si>
+  <si>
+    <t>q-h2-ex-331_day-01.csv</t>
+  </si>
+  <si>
+    <t>033117</t>
+  </si>
+  <si>
+    <t>h2-q</t>
+  </si>
+  <si>
+    <t>dc-h2-temp330_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2-331-600-300_day-01.csv</t>
+  </si>
+  <si>
+    <t>q-h2-331-test_day-01.csv</t>
+  </si>
+  <si>
+    <t>033017</t>
+  </si>
+  <si>
+    <t>h2-q-test check if qpow and qfre control are the same</t>
+  </si>
+  <si>
+    <t>h2-q condition, only finished 600.</t>
+  </si>
+  <si>
+    <t>he-dc-cali_day-01.csv</t>
+  </si>
+  <si>
+    <t>031417</t>
   </si>
 </sst>
 </file>
@@ -293,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +513,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -634,11 +682,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1059,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1103,7 +1153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1252,22 +1302,22 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
@@ -1291,7 +1341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1299,22 +1349,22 @@
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>17</v>
@@ -1338,7 +1388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1346,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1367,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <v>0.9</v>
@@ -1381,25 +1431,28 @@
       <c r="N8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1408,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0.9</v>
@@ -1425,8 +1478,11 @@
       <c r="N9" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1434,16 +1490,16 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1469,9 +1525,295 @@
       <c r="N10" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="O10" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>187</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>187</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M13" s="4">
+        <v>187</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M14" s="4">
+        <v>187</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M15" s="2">
+        <v>187</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M16" s="2">
+        <v>187</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
